--- a/Excel/Mingguan/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
+++ b/Excel/Mingguan/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
@@ -16,13 +16,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
     </font>
     <font>
       <sz val="12"/>
@@ -34,12 +51,8 @@
     <font>
       <sz val="14"/>
     </font>
-    <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -48,14 +61,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB0B0B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00b0b0b0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -91,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -103,7 +169,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -114,6 +179,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,8 +552,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:G37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -472,1279 +563,1279 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Tugas 3</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Tugas 4</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Tugas 5</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" s="1">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="A2" s="14" t="n"/>
+      <c r="B2" s="14" t="n"/>
+      <c r="C2" s="15" t="inlineStr">
         <is>
           <t>MAT1</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="15" t="inlineStr">
         <is>
           <t>PPL1</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="15" t="inlineStr">
         <is>
           <t>PAI1</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="15" t="inlineStr">
         <is>
           <t>PKN1</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="15" t="inlineStr">
         <is>
           <t>PWPB1</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1" s="1">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G3" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1" s="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15.6" customHeight="1" s="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15.6" customHeight="1" s="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="13" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D6" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E6" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F6" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G6" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="1">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="13" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="1">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="C8" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E8" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G8" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1" s="1">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="13" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1" s="1">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="13" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D10" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E10" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F10" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G10" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.6" customHeight="1" s="1">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="13" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
+      <c r="C11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G11" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15.6" customHeight="1" s="1">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="13" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
+      <c r="C12" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D12" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E12" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F12" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G12" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="13" ht="15.6" customHeight="1" s="1">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="13" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
+      <c r="C13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G13" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="14" ht="15.6" customHeight="1" s="1">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="13" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="C14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="12" t="inlineStr">
         <is>
           <t>KRISTEN</t>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr">
+      <c r="F14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G14" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="15" ht="15.6" customHeight="1" s="1">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="13" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="C15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G15" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="16" ht="15.6" customHeight="1" s="1">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
+      <c r="C16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D16" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F16" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G16" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="17" ht="15.6" customHeight="1" s="1">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="13" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="inlineStr">
+      <c r="C17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G17" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="18" ht="15.6" customHeight="1" s="1">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="13" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F18" s="9" t="inlineStr"/>
-      <c r="G18" s="7" t="inlineStr">
+      <c r="C18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F18" s="18" t="inlineStr"/>
+      <c r="G18" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15.6" customHeight="1" s="1">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="13" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D19" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F19" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G19" s="7" t="inlineStr">
+      <c r="C19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G19" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15.6" customHeight="1" s="1">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="13" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G20" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15.6" customHeight="1" s="1">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="13" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F21" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr">
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G21" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15.6" customHeight="1" s="1">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="13" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F22" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G22" s="7" t="inlineStr">
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D22" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F22" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G22" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15.6" customHeight="1" s="1">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="13" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F23" s="9" t="inlineStr"/>
-      <c r="G23" s="7" t="inlineStr">
+      <c r="C23" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D23" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E23" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F23" s="18" t="inlineStr"/>
+      <c r="G23" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15.6" customHeight="1" s="1">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="13" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G24" s="7" t="inlineStr">
+      <c r="C24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15.6" customHeight="1" s="1">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="13" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G25" s="7" t="inlineStr">
+      <c r="C25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G25" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15.6" customHeight="1" s="1">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="13" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="C26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="12" t="inlineStr">
         <is>
           <t>KRISTEN</t>
         </is>
       </c>
-      <c r="F26" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="inlineStr">
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G26" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15.6" customHeight="1" s="1">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="13" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G27" s="7" t="inlineStr">
+      <c r="C27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G27" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15.6" customHeight="1" s="1">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="13" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E28" s="12" t="inlineStr">
         <is>
           <t>KRISTEN</t>
         </is>
       </c>
-      <c r="F28" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G28" s="7" t="inlineStr">
+      <c r="F28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G28" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="29" ht="15.6" customHeight="1" s="1">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="13" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G29" s="7" t="inlineStr">
+      <c r="C29" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D29" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E29" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F29" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G29" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="30" ht="15.6" customHeight="1" s="1">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="13" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F30" s="9" t="inlineStr"/>
-      <c r="G30" s="7" t="inlineStr">
+      <c r="C30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D30" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F30" s="18" t="inlineStr"/>
+      <c r="G30" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="31" ht="15.6" customHeight="1" s="1">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="13" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E31" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G31" s="7" t="inlineStr">
+      <c r="C31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G31" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15.6" customHeight="1" s="1">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="13" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E32" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F32" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G32" s="7" t="inlineStr">
+      <c r="C32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D32" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F32" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G32" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15.6" customHeight="1" s="1">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="12" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="13" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E33" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F33" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G33" s="7" t="inlineStr">
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G33" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15.6" customHeight="1" s="1">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="13" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D34" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E34" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F34" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G34" s="7" t="inlineStr">
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G34" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15.6" customHeight="1" s="1">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="13" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F35" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="inlineStr">
+      <c r="C35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G35" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15.6" customHeight="1" s="1">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="12" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="13" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D36" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E36" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F36" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G36" s="7" t="inlineStr">
+      <c r="C36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G36" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15.6" customHeight="1" s="1">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="13" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C37" s="7" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="C37" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D37" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="inlineStr">
         <is>
           <t>KRISTEN</t>
         </is>
       </c>
-      <c r="F37" s="8" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G37" s="7" t="inlineStr">
+      <c r="F37" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G37" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
